--- a/weather_ui/android/安卓分辨率统计.xlsx
+++ b/weather_ui/android/安卓分辨率统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15075" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15075" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>720*1280</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,80 @@
   </si>
   <si>
     <t>max 小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.改用1280720为基准。
+2.素材方面：max设计时以1280*720为基准，同时兼顾（4倍图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1080*1920</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>480*854</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；3倍图：480*800,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>320*480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的素材效果，最终提供一套均衡素材。
+3.布局方面：默认使用1280*720的布局；需要特殊处理布局的分辨率包括：480*800；480*320；800*1280.（其他比例通过testin验证，如有问题，做兼容性微调）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +301,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,127 +1039,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="145.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C2">
-        <v>1.6666700000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.187</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.128</v>
-      </c>
-      <c r="C4">
-        <v>1.7777799999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.105</v>
-      </c>
-      <c r="C5">
-        <v>1.7791699999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.7777799999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C7">
-        <v>1.7777799999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C9">
-        <v>1.3333299999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C10">
-        <v>1.64445</v>
-      </c>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
